--- a/TeamData/2022-23/10-21-2022-23.xlsx
+++ b/TeamData/2022-23/10-21-2022-23.xlsx
@@ -802,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
         <v>112.5</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" t="n">
         <v>21.5</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1345,7 +1345,7 @@
         <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
         <v>16.5</v>
@@ -1423,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>11</v>
@@ -1969,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
         <v>109.5</v>
@@ -2333,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>4</v>
@@ -2518,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2619,10 +2619,10 @@
         <v>7.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
         <v>114.5</v>
@@ -2697,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
         <v>24</v>
@@ -2801,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
         <v>20.5</v>
@@ -3064,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>27</v>
@@ -3243,10 +3243,10 @@
         <v>20</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3347,10 +3347,10 @@
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="AB16" t="n">
         <v>122</v>
@@ -3428,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
@@ -3607,10 +3607,10 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3971,10 +3971,10 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>6</v>
@@ -4078,7 +4078,7 @@
         <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="AB20" t="n">
         <v>127</v>
@@ -4156,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="BA20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB20" t="n">
         <v>2</v>
@@ -4338,7 +4338,7 @@
         <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
@@ -4621,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AA23" t="n">
         <v>21.5</v>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>15</v>
@@ -4806,7 +4806,7 @@
         <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
         <v>102.5</v>
@@ -4884,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>29</v>
@@ -4985,10 +4985,10 @@
         <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
         <v>109</v>
@@ -5066,7 +5066,7 @@
         <v>30</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
         <v>16</v>
@@ -5167,10 +5167,10 @@
         <v>3</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB26" t="n">
         <v>114</v>
@@ -5245,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA26" t="n">
         <v>2</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>3</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
@@ -5534,7 +5534,7 @@
         <v>20.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
         <v>119.5</v>
@@ -5716,7 +5716,7 @@
         <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
         <v>106.5</v>
@@ -5791,10 +5791,10 @@
         <v>30</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5973,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>13</v>
